--- a/Data/Input/FundsDistributions_TestCaseV3.0.xlsx
+++ b/Data/Input/FundsDistributions_TestCaseV3.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\FederalBotFactory\FundsDistribution\FundDistributions\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4DCFA4-1AF2-4B41-88C2-6022AA04B0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD7401F-0B74-4190-B808-4FD556191B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{688C6AAD-5601-4545-9C7C-9E8F4B197C36}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="81">
   <si>
     <t>Budget Level</t>
   </si>
@@ -246,18 +246,6 @@
     <t>Demo 35</t>
   </si>
   <si>
-    <t>Demo 38</t>
-  </si>
-  <si>
-    <t>Demo 36</t>
-  </si>
-  <si>
-    <t>Demo 37</t>
-  </si>
-  <si>
-    <t>Demo 39</t>
-  </si>
-  <si>
     <t>Demo 47</t>
   </si>
   <si>
@@ -276,7 +264,25 @@
     <t>Entry</t>
   </si>
   <si>
-    <t>Adjust</t>
+    <t>Demo 51</t>
+  </si>
+  <si>
+    <t>Demo 52</t>
+  </si>
+  <si>
+    <t>Demo 53</t>
+  </si>
+  <si>
+    <t>Demo 55</t>
+  </si>
+  <si>
+    <t>Demo 56</t>
+  </si>
+  <si>
+    <t>Demo 57</t>
+  </si>
+  <si>
+    <t>Demo 58</t>
   </si>
 </sst>
 </file>
@@ -638,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1A48C0-806C-4604-9A42-1CA060CE3249}">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,24 +754,24 @@
         <v>23</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>72</v>
+      <c r="B2" t="s">
+        <v>77</v>
       </c>
       <c r="C2" s="4">
         <v>44842</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="4">
@@ -826,16 +832,15 @@
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA2" s="3"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4">
         <v>44842</v>
@@ -844,19 +849,19 @@
         <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4">
-        <v>44143</v>
-      </c>
-      <c r="G3" s="3">
-        <v>25</v>
+        <v>44112</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3">
-        <v>2019</v>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>29</v>
@@ -876,11 +881,11 @@
       <c r="O3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="3">
-        <v>251000</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>4450000000</v>
+      <c r="P3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>29</v>
@@ -892,83 +897,182 @@
         <v>29</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44112</v>
+      </c>
+      <c r="G5" s="3">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>4610000010</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="3">
         <v>1</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA3" s="3"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="AA4" s="3"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="AA5" s="3"/>
-    </row>
-    <row r="6" spans="1:27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Y5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C9" s="4"/>
-      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1061,7 +1165,7 @@
         <v>23</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1069,7 +1173,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4">
         <v>44842</v>
@@ -1138,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1146,7 +1250,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4">
         <v>44842</v>
@@ -1215,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1223,7 +1327,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4">
         <v>44842</v>
@@ -1297,7 +1401,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4">
         <v>44842</v>
@@ -1371,7 +1475,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4">
         <v>44842</v>
@@ -1445,7 +1549,7 @@
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4">
         <v>44842</v>
@@ -1519,7 +1623,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" s="4">
         <v>44842</v>
@@ -1594,7 +1698,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4">
         <v>44842</v>
@@ -1674,10 +1778,14 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="24" max="24" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
@@ -1752,13 +1860,16 @@
       <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4">
         <v>44842</v>
@@ -1825,6 +1936,9 @@
       </c>
       <c r="X2" s="3">
         <v>1</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1832,7 +1946,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4">
         <v>44842</v>
@@ -1899,6 +2013,9 @@
       </c>
       <c r="X3" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="AA3"/>
     </row>
@@ -1907,7 +2024,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4">
         <v>44842</v>
@@ -1974,6 +2091,9 @@
       </c>
       <c r="X4" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="AA4"/>
     </row>
@@ -1982,7 +2102,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4">
         <v>44842</v>
@@ -2049,6 +2169,9 @@
       </c>
       <c r="X5" s="3">
         <v>1</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
